--- a/biology/Médecine/Contre_la_montre___combattre_le_sida_en_Afrique/Contre_la_montre___combattre_le_sida_en_Afrique.xlsx
+++ b/biology/Médecine/Contre_la_montre___combattre_le_sida_en_Afrique/Contre_la_montre___combattre_le_sida_en_Afrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Contre-la-montre : combattre le sida en Afrique (titre original : Race Against Time: Searching for Hope in AIDS-Ravaged Africa) est un essai du canadien Stephen Lewis réalisé dans le cadre des conférences Massey qui se déroulent chaque année à l'Université de Toronto. Écrit durant le premier semestre de l'année 2005, il est sorti la même année chez l'éditeur canadien House of Anansi Press. Une campagne de conférences, animées par l'auteur lui-même, a conjointement été organisée à travers le Canada, chaque chapitre du livre donnant lieu à un sujet de conférence dans une ville différente. Elle s'est déroulée du 18 octobre à Vancouver au 28 octobre à Toronto, et les discours enregistrés furent ensuite diffusés, du 7 au 11 novembre, sur la radio publique canadienne CBC Radio One. L'auteur, Stephen Lewis, social-démocrate canadien, avait les fonctions, au moment de l'écriture du livre, d'envoyé spécial de l'ONU pour le VIH/sida en Afrique, et d'ambassadeur du Canada aux Nations Unies. Les critiques et accusations qu'il livre à l'égard des Nations unies, des organisations internationales et de diplomates qu'il désigne nommément furent qualifiés par certains commentateurs de contraires à ses fonctions diplomatiques, certains allant jusqu'à exiger son éviction des postes qu'il occupait.
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Race Against Time: Searching for Hope in AIDS-Ravaged Africa » (voir la liste des auteurs).
  Portail de la littérature   Portail de la médecine   Portail de l’Afrique                   </t>
